--- a/TFET2/Calc_Ron_EL.xlsx
+++ b/TFET2/Calc_Ron_EL.xlsx
@@ -1,115 +1,157 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becahp\UnB\MATLAB\TFET2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C79AAB2-AF2E-4418-B0C8-028297662E97}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4180" xr2:uid="{399657E1-27D1-459B-9ACC-B76BF9F3568E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ionioff" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Capacitâncias</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>no artigo</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>3Ron * CL</t>
+  </si>
+  <si>
     <t>miniFET</t>
   </si>
   <si>
     <t>tFET</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>CG</t>
+    <t>tfet</t>
   </si>
   <si>
     <t>ideal</t>
   </si>
   <si>
+    <t>ideal LP/1</t>
+  </si>
+  <si>
+    <t>tubo</t>
+  </si>
+  <si>
+    <t>ideal HP/0</t>
+  </si>
+  <si>
     <t>Resistências</t>
   </si>
   <si>
-    <t>tfet</t>
-  </si>
-  <si>
-    <t>ideal HP/1</t>
-  </si>
-  <si>
-    <t>ideal LP/1</t>
-  </si>
-  <si>
-    <t>ideal HP/0</t>
-  </si>
-  <si>
     <t>ideal LP/0</t>
   </si>
   <si>
-    <t>8*CG</t>
+    <t>Id</t>
   </si>
   <si>
     <t>Vsup</t>
   </si>
   <si>
-    <t>8CL * Vsup^2</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>no artigo</t>
-  </si>
-  <si>
-    <t>3Ron * CL</t>
-  </si>
-  <si>
-    <t>3 * Ron * 8CL</t>
-  </si>
-  <si>
-    <t>tubo</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Vsup/Ion</t>
+  </si>
+  <si>
+    <t>CL = 8*CG</t>
+  </si>
+  <si>
+    <t>3 * Ron * CL</t>
+  </si>
+  <si>
+    <t>x (atraso)</t>
+  </si>
+  <si>
+    <t>y1 (potência Os)</t>
+  </si>
+  <si>
+    <t>y2 (potência EL)</t>
+  </si>
+  <si>
+    <t>CL * Vsup^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ps = Ioff * Vdd </t>
+  </si>
+  <si>
+    <t>VBG</t>
+  </si>
+  <si>
+    <t>ION</t>
+  </si>
+  <si>
+    <t>IOFF</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>id retirada em VDS = 0.5 da curva de saida</t>
+  </si>
+  <si>
+    <t>Ioff</t>
+  </si>
+  <si>
+    <t>ioff retirada em VGS = 0V da curva de transferencia</t>
+  </si>
+  <si>
+    <t>VBG = /1, /0</t>
+  </si>
+  <si>
+    <t>ideal HP/-1</t>
+  </si>
+  <si>
+    <t>Device</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,11 +161,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -131,19 +179,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,7 +315,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -178,7 +331,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -190,7 +343,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -237,23 +390,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -289,23 +425,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,38 +576,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4376F779-BE83-41A8-B4DA-C98EF876F3B7}">
-  <dimension ref="A1:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875"/>
+    <col min="2" max="3" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625"/>
+    <col min="9" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -499,21 +625,24 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2">
@@ -524,36 +653,52 @@
         <v>1.1839999999999999E-15</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1">
         <f>3*D3*B9</f>
         <v>8.163143613209818E-11</v>
       </c>
       <c r="I3" s="1">
+        <f t="shared" ref="I3:I4" si="0">G17*C17</f>
+        <v>1.4437730029999999E-8</v>
+      </c>
+      <c r="J3" s="1">
         <f>D3*C17*C17</f>
         <v>2.9599999999999998E-16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2">
         <v>3.1190096779999998E-17</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D5" si="0">8*C4</f>
+        <f>8*C4</f>
         <v>2.4952077423999998E-16</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <f>3*D4*B10</f>
+        <v>8.1226497638347192E-9</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G18*C18</f>
+        <v>9.5985868149999994E-15</v>
+      </c>
+      <c r="J4" s="1">
+        <f>D4*C18*C18</f>
+        <v>6.2380193559999996E-17</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>1.0500000000000001E-16</v>
@@ -562,55 +707,67 @@
         <v>4.7099999999999997E-17</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f>8*C5</f>
         <v>3.7679999999999998E-16</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1">
         <f>3*$D$5*B11</f>
         <v>9.6779774207702932E-11</v>
       </c>
       <c r="I5" s="1">
+        <f>G19*C19</f>
+        <v>1.420414341E-8</v>
+      </c>
+      <c r="J5" s="1">
         <f>$D$5*$C$17*$C$17</f>
         <v>9.4199999999999995E-17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1">
         <f>3*$D$5*B12</f>
         <v>7.0972566518088136E-8</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" ref="I6:I8" si="1">G20*C20</f>
+        <v>1.5134157489999999E-15</v>
+      </c>
+      <c r="J6" s="1">
         <f>$D$5*$C$17*$C$17</f>
         <v>9.4199999999999995E-17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H8" si="1">3*$D$5*B13</f>
+        <f>3*$D$5*B13</f>
         <v>3.4345304360873006E-11</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>2.377496324E-8</v>
+      </c>
+      <c r="J7" s="1">
         <f>$D$5*$C$17*$C$17</f>
         <v>9.4199999999999995E-17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="3">
         <v>60</v>
       </c>
@@ -618,50 +775,56 @@
         <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1">
+        <f>3*$D$5*B14</f>
+        <v>7.468523347370869E-8</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>7.468523347370869E-8</v>
-      </c>
-      <c r="I8" s="1">
+        <v>1.0506204095E-14</v>
+      </c>
+      <c r="J8" s="1">
         <f>$D$5*$C$17*$C$17</f>
         <v>9.4199999999999995E-17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>22981.823235388001</v>
       </c>
       <c r="C9" s="1">
-        <f>B9/$C$8</f>
+        <f t="shared" ref="C9:C14" si="2">B9/$C$8</f>
         <v>383.03038725646667</v>
       </c>
       <c r="D9" s="1">
-        <f>B9/$D$8</f>
+        <f t="shared" ref="D9:D14" si="3">B9/$D$8</f>
         <v>114.90911617694</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10851000</v>
+      </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:C14" si="2">B10/$C$8</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>180850</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D10:D14" si="3">B10/$D$8</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>54255</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1">
         <v>85615.511507168194</v>
@@ -671,17 +834,17 @@
         <v>1426.9251917861366</v>
       </c>
       <c r="D11" s="1">
-        <f>B11/$D$8</f>
+        <f t="shared" si="3"/>
         <v>428.07755753584098</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <f>C9</f>
         <v>383.03038725646667</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>62785356.084649801</v>
@@ -697,7 +860,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>30383.319498295299</v>
@@ -713,7 +876,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>66069739.4494946</v>
@@ -729,13 +892,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>60</v>
@@ -743,44 +906,73 @@
       <c r="F16">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="18">
         <v>6.303752377E-6</v>
       </c>
       <c r="C17">
         <v>0.5</v>
       </c>
       <c r="D17" s="1">
-        <f>C17/B17</f>
+        <f t="shared" ref="D17:D22" si="4">C17/B17</f>
         <v>79317.836440452549</v>
       </c>
       <c r="E17" s="1">
-        <f>D17/$E$16</f>
+        <f t="shared" ref="E17:E22" si="5">D17/$E$16</f>
         <v>1321.9639406742092</v>
       </c>
       <c r="F17" s="1">
-        <f>D17/$F$16</f>
+        <f t="shared" ref="F17:F22" si="6">D17/$F$16</f>
         <v>396.58918220226275</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="1">
+        <f>ionioff!B16</f>
+        <v>2.8875460059999999E-8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9.1232000000000006E-8</v>
       </c>
       <c r="C18">
         <v>0.5</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D18" s="1">
+        <f t="shared" si="4"/>
+        <v>5480533.1462644683</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="5"/>
+        <v>91342.219104407806</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="6"/>
+        <v>27402.66573132234</v>
+      </c>
+      <c r="G18" s="1">
+        <f>ionioff!C16</f>
+        <v>1.9197173629999999E-14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>5.7019000000000004E-6</v>
@@ -789,21 +981,25 @@
         <v>0.5</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:E22" si="4">C19/B19</f>
+        <f t="shared" si="4"/>
         <v>87690.068222873073</v>
       </c>
       <c r="E19" s="1">
-        <f>D19/$E$16</f>
+        <f t="shared" si="5"/>
         <v>1461.5011370478846</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F18:F22" si="5">D19/$F$16</f>
+        <f t="shared" si="6"/>
         <v>438.45034111436536</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="1">
+        <f>ionioff!L4</f>
+        <v>2.840828682E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
         <v>8.6440015169999992E-9</v>
@@ -816,17 +1012,21 @@
         <v>57843580.778723739</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ref="E20:E22" si="6">D20/$E$16</f>
+        <f t="shared" si="5"/>
         <v>964059.6796453956</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>289217.90389361867</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="1">
+        <f>ionioff!B10</f>
+        <v>3.0268314979999998E-15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
         <v>8.2671999999999994E-6</v>
@@ -839,17 +1039,21 @@
         <v>60479.969034255861</v>
       </c>
       <c r="E21" s="1">
+        <f t="shared" si="5"/>
+        <v>1007.9994839042644</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="6"/>
-        <v>1007.9994839042644</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="5"/>
         <v>302.39984517127931</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" s="1">
+        <f>ionioff!G4</f>
+        <v>4.7549926480000001E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
         <v>6.9787999999999999E-9</v>
@@ -862,12 +1066,21 @@
         <v>71645555.109760985</v>
       </c>
       <c r="E22" s="1">
+        <f t="shared" si="5"/>
+        <v>1194092.5851626832</v>
+      </c>
+      <c r="F22" s="1">
         <f t="shared" si="6"/>
-        <v>1194092.5851626832</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="5"/>
         <v>358227.7755488049</v>
+      </c>
+      <c r="G22" s="1">
+        <f>ionioff!G10</f>
+        <v>2.1012408190000001E-14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +1088,396 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:B8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>-0.2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="J2" s="7">
+        <v>-0.6</v>
+      </c>
+      <c r="K2" s="7">
+        <v>-0.8</v>
+      </c>
+      <c r="L2" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1.231559485E-5</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.2101881530000001E-5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.187484536E-5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1.163434294E-5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.13801836E-5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1.11120186E-5</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1.0829219430000001E-5</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1.053095363E-5</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1.0216222880000001E-5</v>
+      </c>
+      <c r="K3" s="9">
+        <v>9.8839056470000002E-6</v>
+      </c>
+      <c r="L3" s="10">
+        <v>9.532803508E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2.164582017E-7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.58216957E-7</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.147881816E-7</v>
+      </c>
+      <c r="E4" s="9">
+        <v>8.3493254940000001E-8</v>
+      </c>
+      <c r="F4" s="9">
+        <v>6.182594729E-8</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4.7549926480000001E-8</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3.8695333449999998E-8</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3.3577449539999999E-8</v>
+      </c>
+      <c r="J4" s="9">
+        <v>3.083574169E-8</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2.9399219710000001E-8</v>
+      </c>
+      <c r="L4" s="10">
+        <v>2.840828682E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12">
+        <v>56.895949209948597</v>
+      </c>
+      <c r="C5" s="12">
+        <v>76.489156152838902</v>
+      </c>
+      <c r="D5" s="12">
+        <v>103.45006946255199</v>
+      </c>
+      <c r="E5" s="12">
+        <v>139.34470453165</v>
+      </c>
+      <c r="F5" s="12">
+        <v>184.068083043196</v>
+      </c>
+      <c r="G5" s="12">
+        <v>233.691604227271</v>
+      </c>
+      <c r="H5" s="12">
+        <v>279.858537567403</v>
+      </c>
+      <c r="I5" s="12">
+        <v>313.63173124435002</v>
+      </c>
+      <c r="J5" s="12">
+        <v>331.31107993789902</v>
+      </c>
+      <c r="K5" s="12">
+        <v>336.19618971173003</v>
+      </c>
+      <c r="L5" s="13">
+        <v>335.56418126871102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>-0.2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="J8" s="7">
+        <v>-0.6</v>
+      </c>
+      <c r="K8" s="7">
+        <v>-0.8</v>
+      </c>
+      <c r="L8" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1.135706923E-7</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.1396080869999999E-7</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.144568887E-7</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.150549622E-7</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1.157551486E-7</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1.165678882E-7</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1.1746954639999999E-7</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1.184387771E-7</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1.1936294570000001E-7</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1.1990748199999999E-7</v>
+      </c>
+      <c r="L9" s="10">
+        <v>1.190099874E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3.0268314979999998E-15</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3.0825735929999998E-15</v>
+      </c>
+      <c r="D10" s="9">
+        <v>4.2616199430000002E-15</v>
+      </c>
+      <c r="E10" s="9">
+        <v>6.6547516139999997E-15</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.133498217E-14</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2.1012408190000001E-14</v>
+      </c>
+      <c r="H10" s="9">
+        <v>3.7535253630000001E-14</v>
+      </c>
+      <c r="I10" s="9">
+        <v>6.7438738979999998E-14</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1.3023087339999999E-13</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2.5954724969999998E-13</v>
+      </c>
+      <c r="L10" s="10">
+        <v>5.3410755290000004E-13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="12">
+        <v>37521313.087643802</v>
+      </c>
+      <c r="C11" s="12">
+        <v>36969371.618178301</v>
+      </c>
+      <c r="D11" s="12">
+        <v>26857601.154228501</v>
+      </c>
+      <c r="E11" s="12">
+        <v>17289144.490074102</v>
+      </c>
+      <c r="F11" s="12">
+        <v>10212203.853868101</v>
+      </c>
+      <c r="G11" s="12">
+        <v>5547573.9451642605</v>
+      </c>
+      <c r="H11" s="12">
+        <v>3129579.13000787</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1756242.4637732999</v>
+      </c>
+      <c r="J11" s="12">
+        <v>916548.76131699199</v>
+      </c>
+      <c r="K11" s="12">
+        <v>461987.10307505098</v>
+      </c>
+      <c r="L11" s="13">
+        <v>222820.26673058901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.214625623E-5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.165620482E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.8875460059999999E-8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.9197173629999999E-14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/TFET2/Calc_Ron_EL.xlsx
+++ b/TFET2/Calc_Ron_EL.xlsx
@@ -275,9 +275,6 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -287,6 +284,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,7 +297,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,11 +596,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="H1" t="s">
         <v>20</v>
       </c>
@@ -660,7 +660,7 @@
         <v>8.163143613209818E-11</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I4" si="0">G17*C17</f>
+        <f t="shared" ref="I3" si="0">G17*C17</f>
         <v>1.4437730029999999E-8</v>
       </c>
       <c r="J3" s="1">
@@ -764,10 +764,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3">
         <v>60</v>
       </c>
@@ -917,7 +917,7 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="14">
         <v>6.303752377E-6</v>
       </c>
       <c r="C17">
@@ -1104,339 +1104,339 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0.8</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>0.6</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>0.4</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0.2</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>0</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>-0.2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>-0.4</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>-0.6</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>-0.8</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1.231559485E-5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>1.2101881530000001E-5</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>1.187484536E-5</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>1.163434294E-5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>1.13801836E-5</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>1.11120186E-5</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>1.0829219430000001E-5</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>1.053095363E-5</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>1.0216222880000001E-5</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>9.8839056470000002E-6</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>9.532803508E-6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>2.164582017E-7</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>1.58216957E-7</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>1.147881816E-7</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>8.3493254940000001E-8</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>6.182594729E-8</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>4.7549926480000001E-8</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>3.8695333449999998E-8</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>3.3577449539999999E-8</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>3.083574169E-8</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>2.9399219710000001E-8</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <v>2.840828682E-8</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>56.895949209948597</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>76.489156152838902</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>103.45006946255199</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>139.34470453165</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>184.068083043196</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>233.691604227271</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>279.858537567403</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>313.63173124435002</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>331.31107993789902</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>336.19618971173003</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>335.56418126871102</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.8</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>0.6</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0.4</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>0.2</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>0</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>-0.2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>-0.4</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>-0.6</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>-0.8</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>1.135706923E-7</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>1.1396080869999999E-7</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>1.144568887E-7</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>1.150549622E-7</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>1.157551486E-7</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>1.165678882E-7</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>1.1746954639999999E-7</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>1.184387771E-7</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>1.1936294570000001E-7</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>1.1990748199999999E-7</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>1.190099874E-7</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>3.0268314979999998E-15</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>3.0825735929999998E-15</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>4.2616199430000002E-15</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>6.6547516139999997E-15</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>1.133498217E-14</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>2.1012408190000001E-14</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>3.7535253630000001E-14</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>6.7438738979999998E-14</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>1.3023087339999999E-13</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>2.5954724969999998E-13</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>5.3410755290000004E-13</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>37521313.087643802</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>36969371.618178301</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>26857601.154228501</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>17289144.490074102</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>10212203.853868101</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>5547573.9451642605</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>3129579.13000787</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>1756242.4637732999</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>916548.76131699199</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>461987.10307505098</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <v>222820.26673058901</v>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1">
@@ -1463,7 +1463,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1">

--- a/TFET2/Calc_Ron_EL.xlsx
+++ b/TFET2/Calc_Ron_EL.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Capacitâncias</t>
   </si>
@@ -136,14 +136,28 @@
   </si>
   <si>
     <t>Device</t>
+  </si>
+  <si>
+    <t>ideal HP/1</t>
+  </si>
+  <si>
+    <t>ideal LP/-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -269,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -297,6 +311,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,7 +604,8 @@
     <col min="1" max="1" width="12.1796875"/>
     <col min="2" max="3" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.81640625"/>
     <col min="9" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
@@ -660,11 +677,11 @@
         <v>8.163143613209818E-11</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3" si="0">G17*C17</f>
+        <f t="shared" ref="I3" si="0">G19*C19</f>
         <v>1.4437730029999999E-8</v>
       </c>
       <c r="J3" s="1">
-        <f>D3*C17*C17</f>
+        <f>D3*C19*C19</f>
         <v>2.9599999999999998E-16</v>
       </c>
     </row>
@@ -688,11 +705,11 @@
         <v>8.1226497638347192E-9</v>
       </c>
       <c r="I4" s="1">
-        <f>G18*C18</f>
+        <f>G20*C20</f>
         <v>9.5985868149999994E-15</v>
       </c>
       <c r="J4" s="1">
-        <f>D4*C18*C18</f>
+        <f>D4*C20*C20</f>
         <v>6.2380193559999996E-17</v>
       </c>
     </row>
@@ -718,28 +735,28 @@
         <v>9.6779774207702932E-11</v>
       </c>
       <c r="I5" s="1">
-        <f>G19*C19</f>
+        <f>G21*C21</f>
         <v>1.420414341E-8</v>
       </c>
       <c r="J5" s="1">
-        <f>$D$5*$C$17*$C$17</f>
+        <f>$D$5*$C$19*$C$19</f>
         <v>9.4199999999999995E-17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G6" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1">
         <f>3*$D$5*B12</f>
-        <v>7.0972566518088136E-8</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I8" si="1">G20*C20</f>
-        <v>1.5134157489999999E-15</v>
+        <f t="shared" ref="I6:I8" si="1">G22*C22</f>
+        <v>2.6705377645000002E-13</v>
       </c>
       <c r="J6" s="1">
-        <f>$D$5*$C$17*$C$17</f>
+        <f>$D$5*$C$19*$C$19</f>
         <v>9.4199999999999995E-17</v>
       </c>
     </row>
@@ -759,7 +776,7 @@
         <v>2.377496324E-8</v>
       </c>
       <c r="J7" s="1">
-        <f>$D$5*$C$17*$C$17</f>
+        <f>$D$5*$C$19*$C$19</f>
         <v>9.4199999999999995E-17</v>
       </c>
     </row>
@@ -786,7 +803,7 @@
         <v>1.0506204095E-14</v>
       </c>
       <c r="J8" s="1">
-        <f>$D$5*$C$17*$C$17</f>
+        <f>$D$5*$C$19*$C$19</f>
         <v>9.4199999999999995E-17</v>
       </c>
     </row>
@@ -798,12 +815,27 @@
         <v>22981.823235388001</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:C14" si="2">B9/$C$8</f>
+        <f t="shared" ref="C9:C15" si="2">B9/$C$8</f>
         <v>383.03038725646667</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D14" si="3">B9/$D$8</f>
+        <f t="shared" ref="D9:D15" si="3">B9/$D$8</f>
         <v>114.90911617694</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1">
+        <f>3*$D$5*B15</f>
+        <v>2.521168747259794E-11</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ref="I9" si="4">G25*C25</f>
+        <v>1.0822910085E-7</v>
+      </c>
+      <c r="J9" s="1">
+        <f>$D$5*$C$19*$C$19</f>
+        <v>9.4199999999999995E-17</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -821,6 +853,21 @@
         <f t="shared" si="3"/>
         <v>54255</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="20">
+        <f>3*$D$5*B16</f>
+        <v>7.0972566518088136E-8</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10" si="5">G26*C26</f>
+        <v>1.5134157489999999E-15</v>
+      </c>
+      <c r="J10" s="1">
+        <f>$D$5*$C$19*$C$19</f>
+        <v>9.4199999999999995E-17</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -844,18 +891,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>62785356.084649801</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1">
         <f t="shared" si="2"/>
-        <v>1046422.60141083</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="3"/>
-        <v>313926.780423249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -890,198 +935,285 @@
         <v>330348.697247473</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1">
+        <v>22303.332866771001</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="2"/>
+        <v>371.72221444618333</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="3"/>
+        <v>111.516664333855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>62785356.084649801</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ref="C16" si="6">B16/$C$8</f>
+        <v>1046422.60141083</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16" si="7">B16/$D$8</f>
+        <v>313926.780423249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>60</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>200</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G18" t="s">
         <v>32</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B19" s="14">
         <v>6.303752377E-6</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>0.5</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" ref="D17:D22" si="4">C17/B17</f>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:D24" si="8">C19/B19</f>
         <v>79317.836440452549</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" ref="E17:E22" si="5">D17/$E$16</f>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19:E24" si="9">D19/$E$18</f>
         <v>1321.9639406742092</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" ref="F17:F22" si="6">D17/$F$16</f>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19:F24" si="10">D19/$F$18</f>
         <v>396.58918220226275</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G19" s="1">
         <f>ionioff!B16</f>
         <v>2.8875460059999999E-8</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B20" s="1">
         <v>9.1232000000000006E-8</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>0.5</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="4"/>
+      <c r="D20" s="1">
+        <f t="shared" si="8"/>
         <v>5480533.1462644683</v>
       </c>
-      <c r="E18" s="1">
-        <f t="shared" si="5"/>
+      <c r="E20" s="1">
+        <f t="shared" si="9"/>
         <v>91342.219104407806</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="6"/>
+      <c r="F20" s="1">
+        <f t="shared" si="10"/>
         <v>27402.66573132234</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G20" s="1">
         <f>ionioff!C16</f>
         <v>1.9197173629999999E-14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5.7019000000000004E-6</v>
-      </c>
-      <c r="C19">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="4"/>
-        <v>87690.068222873073</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="5"/>
-        <v>1461.5011370478846</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="6"/>
-        <v>438.45034111436536</v>
-      </c>
-      <c r="G19" s="1">
-        <f>ionioff!L4</f>
-        <v>2.840828682E-8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1">
-        <v>8.6440015169999992E-9</v>
-      </c>
-      <c r="C20">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="4"/>
-        <v>57843580.778723739</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="5"/>
-        <v>964059.6796453956</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="6"/>
-        <v>289217.90389361867</v>
-      </c>
-      <c r="G20" s="1">
-        <f>ionioff!B10</f>
-        <v>3.0268314979999998E-15</v>
-      </c>
-    </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1">
-        <v>8.2671999999999994E-6</v>
+        <v>5.7019000000000004E-6</v>
       </c>
       <c r="C21">
         <v>0.5</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="4"/>
-        <v>60479.969034255861</v>
+        <f t="shared" si="8"/>
+        <v>87690.068222873073</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="5"/>
-        <v>1007.9994839042644</v>
+        <f t="shared" si="9"/>
+        <v>1461.5011370478846</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="6"/>
-        <v>302.39984517127931</v>
+        <f t="shared" si="10"/>
+        <v>438.45034111436536</v>
       </c>
       <c r="G21" s="1">
-        <f>ionioff!G4</f>
-        <v>4.7549926480000001E-8</v>
+        <f>ionioff!$L$4</f>
+        <v>2.840828682E-8</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1">
-        <v>6.9787999999999999E-9</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="C22">
         <v>0.5</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="4"/>
-        <v>71645555.109760985</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="5"/>
-        <v>1194092.5851626832</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="6"/>
-        <v>358227.7755488049</v>
+      <c r="D22" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G22" s="1">
-        <f>ionioff!G10</f>
-        <v>2.1012408190000001E-14</v>
+        <f>ionioff!$L$10</f>
+        <v>5.3410755290000004E-13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8.2671999999999994E-6</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="8"/>
+        <v>60479.969034255861</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="9"/>
+        <v>1007.9994839042644</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="10"/>
+        <v>302.39984517127931</v>
+      </c>
+      <c r="G23" s="1">
+        <f>ionioff!$G$4</f>
+        <v>4.7549926480000001E-8</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6.9787999999999999E-9</v>
+      </c>
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="8"/>
+        <v>71645555.109760985</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="9"/>
+        <v>1194092.5851626832</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="10"/>
+        <v>358227.7755488049</v>
+      </c>
+      <c r="G24" s="1">
+        <f>ionioff!$G$10</f>
+        <v>2.1012408190000001E-14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.6440000000000006E-5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25" si="11">C25/B25</f>
+        <v>5784.3590930124938</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ref="E25" si="12">D25/$E$18</f>
+        <v>96.405984883541564</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" ref="F25" si="13">D25/$F$18</f>
+        <v>28.92179546506247</v>
+      </c>
+      <c r="G25" s="1">
+        <f>ionioff!$B$4</f>
+        <v>2.164582017E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8.6440015169999992E-9</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26" si="14">C26/B26</f>
+        <v>57843580.778723739</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ref="E26" si="15">D26/$E$18</f>
+        <v>964059.6796453956</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" ref="F26" si="16">D26/$F$18</f>
+        <v>289217.90389361867</v>
+      </c>
+      <c r="G26" s="1">
+        <f>ionioff!$B$10</f>
+        <v>3.0268314979999998E-15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1098,7 +1230,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TFET2/Calc_Ron_EL.xlsx
+++ b/TFET2/Calc_Ron_EL.xlsx
@@ -299,6 +299,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -311,8 +313,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,11 +613,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="H1" t="s">
         <v>20</v>
       </c>
@@ -731,7 +731,7 @@
         <v>35</v>
       </c>
       <c r="H5" s="1">
-        <f>3*$D$5*B11</f>
+        <f t="shared" ref="H5:H10" si="1">3*$D$5*B11</f>
         <v>9.6779774207702932E-11</v>
       </c>
       <c r="I5" s="1">
@@ -739,7 +739,7 @@
         <v>1.420414341E-8</v>
       </c>
       <c r="J5" s="1">
-        <f>$D$5*$C$19*$C$19</f>
+        <f t="shared" ref="J5:J10" si="2">$D$5*$C$19*$C$19</f>
         <v>9.4199999999999995E-17</v>
       </c>
     </row>
@@ -748,15 +748,15 @@
         <v>38</v>
       </c>
       <c r="H6" s="1">
-        <f>3*$D$5*B12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I8" si="1">G22*C22</f>
+        <f t="shared" ref="I6:I8" si="3">G22*C22</f>
         <v>2.6705377645000002E-13</v>
       </c>
       <c r="J6" s="1">
-        <f>$D$5*$C$19*$C$19</f>
+        <f t="shared" si="2"/>
         <v>9.4199999999999995E-17</v>
       </c>
     </row>
@@ -768,23 +768,23 @@
         <v>12</v>
       </c>
       <c r="H7" s="1">
-        <f>3*$D$5*B13</f>
+        <f t="shared" si="1"/>
         <v>3.4345304360873006E-11</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.377496324E-8</v>
       </c>
       <c r="J7" s="1">
-        <f>$D$5*$C$19*$C$19</f>
+        <f t="shared" si="2"/>
         <v>9.4199999999999995E-17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="3">
         <v>60</v>
       </c>
@@ -795,15 +795,15 @@
         <v>14</v>
       </c>
       <c r="H8" s="1">
-        <f>3*$D$5*B14</f>
+        <f t="shared" si="1"/>
         <v>7.468523347370869E-8</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0506204095E-14</v>
       </c>
       <c r="J8" s="1">
-        <f>$D$5*$C$19*$C$19</f>
+        <f t="shared" si="2"/>
         <v>9.4199999999999995E-17</v>
       </c>
     </row>
@@ -815,26 +815,26 @@
         <v>22981.823235388001</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:C15" si="2">B9/$C$8</f>
+        <f t="shared" ref="C9:C15" si="4">B9/$C$8</f>
         <v>383.03038725646667</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D15" si="3">B9/$D$8</f>
+        <f t="shared" ref="D9:D15" si="5">B9/$D$8</f>
         <v>114.90911617694</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H9" s="1">
-        <f>3*$D$5*B15</f>
+        <f t="shared" si="1"/>
         <v>2.521168747259794E-11</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9" si="4">G25*C25</f>
+        <f t="shared" ref="I9" si="6">G25*C25</f>
         <v>1.0822910085E-7</v>
       </c>
       <c r="J9" s="1">
-        <f>$D$5*$C$19*$C$19</f>
+        <f t="shared" si="2"/>
         <v>9.4199999999999995E-17</v>
       </c>
     </row>
@@ -846,26 +846,26 @@
         <v>10851000</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>180850</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54255</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="20">
-        <f>3*$D$5*B16</f>
+      <c r="H10" s="16">
+        <f t="shared" si="1"/>
         <v>7.0972566518088136E-8</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ref="I10" si="5">G26*C26</f>
+        <f t="shared" ref="I10" si="7">G26*C26</f>
         <v>1.5134157489999999E-15</v>
       </c>
       <c r="J10" s="1">
-        <f>$D$5*$C$19*$C$19</f>
+        <f t="shared" si="2"/>
         <v>9.4199999999999995E-17</v>
       </c>
     </row>
@@ -877,11 +877,11 @@
         <v>85615.511507168194</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1426.9251917861366</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>428.07755753584098</v>
       </c>
       <c r="K11" s="4">
@@ -895,11 +895,11 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -911,11 +911,11 @@
         <v>30383.319498295299</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>506.38865830492165</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>151.91659749147649</v>
       </c>
     </row>
@@ -927,11 +927,11 @@
         <v>66069739.4494946</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1101162.3241582434</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>330348.697247473</v>
       </c>
     </row>
@@ -943,11 +943,11 @@
         <v>22303.332866771001</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>371.72221444618333</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>111.516664333855</v>
       </c>
     </row>
@@ -959,11 +959,11 @@
         <v>62785356.084649801</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16" si="6">B16/$C$8</f>
+        <f t="shared" ref="C16" si="8">B16/$C$8</f>
         <v>1046422.60141083</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16" si="7">B16/$D$8</f>
+        <f t="shared" ref="D16" si="9">B16/$D$8</f>
         <v>313926.780423249</v>
       </c>
     </row>
@@ -1001,15 +1001,15 @@
         <v>0.5</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:D24" si="8">C19/B19</f>
+        <f t="shared" ref="D19:D24" si="10">C19/B19</f>
         <v>79317.836440452549</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19:E24" si="9">D19/$E$18</f>
+        <f t="shared" ref="E19:E24" si="11">D19/$E$18</f>
         <v>1321.9639406742092</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19:F24" si="10">D19/$F$18</f>
+        <f t="shared" ref="F19:F24" si="12">D19/$F$18</f>
         <v>396.58918220226275</v>
       </c>
       <c r="G19" s="1">
@@ -1031,15 +1031,15 @@
         <v>0.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5480533.1462644683</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>91342.219104407806</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>27402.66573132234</v>
       </c>
       <c r="G20" s="1">
@@ -1058,15 +1058,15 @@
         <v>0.5</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>87690.068222873073</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1461.5011370478846</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>438.45034111436536</v>
       </c>
       <c r="G21" s="1">
@@ -1083,15 +1083,15 @@
         <v>0.5</v>
       </c>
       <c r="D22" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G22" s="1">
@@ -1110,15 +1110,15 @@
         <v>0.5</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60479.969034255861</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1007.9994839042644</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>302.39984517127931</v>
       </c>
       <c r="G23" s="1">
@@ -1137,15 +1137,15 @@
         <v>0.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>71645555.109760985</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1194092.5851626832</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>358227.7755488049</v>
       </c>
       <c r="G24" s="1">
@@ -1164,15 +1164,15 @@
         <v>0.5</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25" si="11">C25/B25</f>
+        <f t="shared" ref="D25" si="13">C25/B25</f>
         <v>5784.3590930124938</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ref="E25" si="12">D25/$E$18</f>
+        <f t="shared" ref="E25" si="14">D25/$E$18</f>
         <v>96.405984883541564</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ref="F25" si="13">D25/$F$18</f>
+        <f t="shared" ref="F25" si="15">D25/$F$18</f>
         <v>28.92179546506247</v>
       </c>
       <c r="G25" s="1">
@@ -1191,15 +1191,15 @@
         <v>0.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26" si="14">C26/B26</f>
+        <f t="shared" ref="D26" si="16">C26/B26</f>
         <v>57843580.778723739</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ref="E26" si="15">D26/$E$18</f>
+        <f t="shared" ref="E26" si="17">D26/$E$18</f>
         <v>964059.6796453956</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26" si="16">D26/$F$18</f>
+        <f t="shared" ref="F26" si="18">D26/$F$18</f>
         <v>289217.90389361867</v>
       </c>
       <c r="G26" s="1">
@@ -1213,7 +1213,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F29" s="19"/>
+      <c r="F29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1236,20 +1236,20 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -1405,20 +1405,20 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">

--- a/TFET2/Calc_Ron_EL.xlsx
+++ b/TFET2/Calc_Ron_EL.xlsx
@@ -148,16 +148,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -300,7 +295,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,6 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,16 +591,15 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1796875"/>
-    <col min="2" max="3" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.81640625"/>
     <col min="9" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
@@ -613,11 +607,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="H1" t="s">
         <v>20</v>
       </c>
@@ -747,9 +741,9 @@
       <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.3825456275628532E-8</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6:I8" si="3">G22*C22</f>
@@ -781,10 +775,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="3">
         <v>60</v>
       </c>
@@ -814,11 +808,11 @@
       <c r="B9" s="1">
         <v>22981.823235388001</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="20">
         <f t="shared" ref="C9:C15" si="4">B9/$C$8</f>
         <v>383.03038725646667</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="20">
         <f t="shared" ref="D9:D15" si="5">B9/$D$8</f>
         <v>114.90911617694</v>
       </c>
@@ -845,18 +839,18 @@
       <c r="B10" s="1">
         <v>10851000</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="20">
         <f t="shared" si="4"/>
         <v>180850</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="20">
         <f t="shared" si="5"/>
         <v>54255</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <f t="shared" si="1"/>
         <v>7.0972566518088136E-8</v>
       </c>
@@ -876,11 +870,11 @@
       <c r="B11" s="1">
         <v>85615.511507168194</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="20">
         <f t="shared" si="4"/>
         <v>1426.9251917861366</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="20">
         <f t="shared" si="5"/>
         <v>428.07755753584098</v>
       </c>
@@ -893,14 +887,16 @@
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1">
+      <c r="B12" s="1">
+        <v>65309143.909791701</v>
+      </c>
+      <c r="C12" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
+        <v>1088485.7318298616</v>
+      </c>
+      <c r="D12" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>326545.71954895853</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -910,11 +906,11 @@
       <c r="B13" s="1">
         <v>30383.319498295299</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="20">
         <f t="shared" si="4"/>
         <v>506.38865830492165</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="20">
         <f t="shared" si="5"/>
         <v>151.91659749147649</v>
       </c>
@@ -926,11 +922,11 @@
       <c r="B14" s="1">
         <v>66069739.4494946</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="20">
         <f t="shared" si="4"/>
         <v>1101162.3241582434</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="20">
         <f t="shared" si="5"/>
         <v>330348.697247473</v>
       </c>
@@ -942,11 +938,11 @@
       <c r="B15" s="1">
         <v>22303.332866771001</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="20">
         <f t="shared" si="4"/>
         <v>371.72221444618333</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="20">
         <f t="shared" si="5"/>
         <v>111.516664333855</v>
       </c>
@@ -958,11 +954,11 @@
       <c r="B16" s="1">
         <v>62785356.084649801</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="20">
         <f t="shared" ref="C16" si="8">B16/$C$8</f>
         <v>1046422.60141083</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="20">
         <f t="shared" ref="D16" si="9">B16/$D$8</f>
         <v>313926.780423249</v>
       </c>
@@ -1004,11 +1000,11 @@
         <f t="shared" ref="D19:D24" si="10">C19/B19</f>
         <v>79317.836440452549</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="20">
         <f t="shared" ref="E19:E24" si="11">D19/$E$18</f>
         <v>1321.9639406742092</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="20">
         <f t="shared" ref="F19:F24" si="12">D19/$F$18</f>
         <v>396.58918220226275</v>
       </c>
@@ -1034,11 +1030,11 @@
         <f t="shared" si="10"/>
         <v>5480533.1462644683</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="20">
         <f t="shared" si="11"/>
         <v>91342.219104407806</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="20">
         <f t="shared" si="12"/>
         <v>27402.66573132234</v>
       </c>
@@ -1061,11 +1057,11 @@
         <f t="shared" si="10"/>
         <v>87690.068222873073</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="20">
         <f t="shared" si="11"/>
         <v>1461.5011370478846</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="20">
         <f t="shared" si="12"/>
         <v>438.45034111436536</v>
       </c>
@@ -1078,21 +1074,23 @@
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>5.6841999999999999E-9</v>
+      </c>
       <c r="C22">
         <v>0.5</v>
       </c>
-      <c r="D22" s="1" t="e">
+      <c r="D22" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="1" t="e">
+        <v>87963125.857640475</v>
+      </c>
+      <c r="E22" s="20">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="1" t="e">
+        <v>1466052.0976273413</v>
+      </c>
+      <c r="F22" s="20">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>439815.62928820238</v>
       </c>
       <c r="G22" s="1">
         <f>ionioff!$L$10</f>
@@ -1113,11 +1111,11 @@
         <f t="shared" si="10"/>
         <v>60479.969034255861</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="20">
         <f t="shared" si="11"/>
         <v>1007.9994839042644</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="20">
         <f t="shared" si="12"/>
         <v>302.39984517127931</v>
       </c>
@@ -1140,11 +1138,11 @@
         <f t="shared" si="10"/>
         <v>71645555.109760985</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="20">
         <f t="shared" si="11"/>
         <v>1194092.5851626832</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="20">
         <f t="shared" si="12"/>
         <v>358227.7755488049</v>
       </c>
@@ -1167,11 +1165,11 @@
         <f t="shared" ref="D25" si="13">C25/B25</f>
         <v>5784.3590930124938</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="20">
         <f t="shared" ref="E25" si="14">D25/$E$18</f>
         <v>96.405984883541564</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="20">
         <f t="shared" ref="F25" si="15">D25/$F$18</f>
         <v>28.92179546506247</v>
       </c>
@@ -1194,11 +1192,11 @@
         <f t="shared" ref="D26" si="16">C26/B26</f>
         <v>57843580.778723739</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="20">
         <f t="shared" ref="E26" si="17">D26/$E$18</f>
         <v>964059.6796453956</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="20">
         <f t="shared" ref="F26" si="18">D26/$F$18</f>
         <v>289217.90389361867</v>
       </c>
@@ -1236,20 +1234,20 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -1405,20 +1403,20 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">

--- a/TFET2/Calc_Ron_EL.xlsx
+++ b/TFET2/Calc_Ron_EL.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Capacitâncias</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>ideal LP/-1</t>
+  </si>
+  <si>
+    <t>y3 (EL dividido por T)</t>
+  </si>
+  <si>
+    <t>y2/x</t>
   </si>
 </sst>
 </file>
@@ -149,7 +155,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -295,6 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,7 +314,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +597,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,11 +613,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="H1" t="s">
         <v>20</v>
       </c>
@@ -620,6 +626,9 @@
       </c>
       <c r="J1" t="s">
         <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -647,6 +656,9 @@
       <c r="J2" t="s">
         <v>23</v>
       </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
       <c r="N2" t="s">
         <v>5</v>
       </c>
@@ -678,6 +690,10 @@
         <f>D3*C19*C19</f>
         <v>2.9599999999999998E-16</v>
       </c>
+      <c r="K3" s="1">
+        <f>J3/H3</f>
+        <v>3.626054054972215E-6</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -706,6 +722,10 @@
         <f>D4*C20*C20</f>
         <v>6.2380193559999996E-17</v>
       </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K10" si="1">J4/H4</f>
+        <v>7.6797837372899576E-9</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -725,7 +745,7 @@
         <v>35</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H10" si="1">3*$D$5*B11</f>
+        <f t="shared" ref="H5:H10" si="2">3*$D$5*B11</f>
         <v>9.6779774207702932E-11</v>
       </c>
       <c r="I5" s="1">
@@ -733,8 +753,12 @@
         <v>1.420414341E-8</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J10" si="2">$D$5*$C$19*$C$19</f>
+        <f t="shared" ref="J5:J10" si="3">$D$5*$C$19*$C$19</f>
         <v>9.4199999999999995E-17</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7334387036111107E-7</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -742,16 +766,20 @@
         <v>38</v>
       </c>
       <c r="H6" s="14">
+        <f t="shared" si="2"/>
+        <v>7.3825456275628532E-8</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:I8" si="4">G22*C22</f>
+        <v>2.6705377645000002E-13</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4199999999999995E-17</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>7.3825456275628532E-8</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" ref="I6:I8" si="3">G22*C22</f>
-        <v>2.6705377645000002E-13</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>9.4199999999999995E-17</v>
+        <v>1.2759826319027786E-9</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -762,23 +790,27 @@
         <v>12</v>
       </c>
       <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4345304360873006E-11</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="4"/>
+        <v>2.377496324E-8</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4199999999999995E-17</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>3.4345304360873006E-11</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>2.377496324E-8</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="2"/>
-        <v>9.4199999999999995E-17</v>
+        <v>2.7427330097361108E-6</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="3">
         <v>60</v>
       </c>
@@ -789,16 +821,20 @@
         <v>14</v>
       </c>
       <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>7.468523347370869E-8</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0506204095E-14</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4199999999999995E-17</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>7.468523347370869E-8</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0506204095E-14</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="2"/>
-        <v>9.4199999999999995E-17</v>
+        <v>1.261293506341666E-9</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -808,28 +844,32 @@
       <c r="B9" s="1">
         <v>22981.823235388001</v>
       </c>
-      <c r="C9" s="20">
-        <f t="shared" ref="C9:C15" si="4">B9/$C$8</f>
+      <c r="C9" s="16">
+        <f t="shared" ref="C9:C15" si="5">B9/$C$8</f>
         <v>383.03038725646667</v>
       </c>
-      <c r="D9" s="20">
-        <f t="shared" ref="D9:D15" si="5">B9/$D$8</f>
+      <c r="D9" s="16">
+        <f t="shared" ref="D9:D15" si="6">B9/$D$8</f>
         <v>114.90911617694</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>2.521168747259794E-11</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ref="I9" si="7">G25*C25</f>
+        <v>1.0822910085E-7</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4199999999999995E-17</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="1"/>
-        <v>2.521168747259794E-11</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" ref="I9" si="6">G25*C25</f>
-        <v>1.0822910085E-7</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="2"/>
-        <v>9.4199999999999995E-17</v>
+        <v>3.7363623558472242E-6</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -839,28 +879,32 @@
       <c r="B10" s="1">
         <v>10851000</v>
       </c>
-      <c r="C10" s="20">
-        <f t="shared" si="4"/>
+      <c r="C10" s="16">
+        <f t="shared" si="5"/>
         <v>180850</v>
       </c>
-      <c r="D10" s="20">
-        <f t="shared" si="5"/>
+      <c r="D10" s="16">
+        <f t="shared" si="6"/>
         <v>54255</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="14">
+        <f t="shared" si="2"/>
+        <v>7.0972566518088136E-8</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10" si="8">G26*C26</f>
+        <v>1.5134157489999999E-15</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4199999999999995E-17</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="1"/>
-        <v>7.0972566518088136E-8</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" ref="I10" si="7">G26*C26</f>
-        <v>1.5134157489999999E-15</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="2"/>
-        <v>9.4199999999999995E-17</v>
+        <v>1.3272734046611108E-9</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -870,12 +914,12 @@
       <c r="B11" s="1">
         <v>85615.511507168194</v>
       </c>
-      <c r="C11" s="20">
-        <f t="shared" si="4"/>
+      <c r="C11" s="16">
+        <f t="shared" si="5"/>
         <v>1426.9251917861366</v>
       </c>
-      <c r="D11" s="20">
-        <f t="shared" si="5"/>
+      <c r="D11" s="16">
+        <f t="shared" si="6"/>
         <v>428.07755753584098</v>
       </c>
       <c r="K11" s="4">
@@ -890,12 +934,12 @@
       <c r="B12" s="1">
         <v>65309143.909791701</v>
       </c>
-      <c r="C12" s="20">
-        <f t="shared" si="4"/>
+      <c r="C12" s="16">
+        <f t="shared" si="5"/>
         <v>1088485.7318298616</v>
       </c>
-      <c r="D12" s="20">
-        <f t="shared" si="5"/>
+      <c r="D12" s="16">
+        <f t="shared" si="6"/>
         <v>326545.71954895853</v>
       </c>
     </row>
@@ -906,12 +950,12 @@
       <c r="B13" s="1">
         <v>30383.319498295299</v>
       </c>
-      <c r="C13" s="20">
-        <f t="shared" si="4"/>
+      <c r="C13" s="16">
+        <f t="shared" si="5"/>
         <v>506.38865830492165</v>
       </c>
-      <c r="D13" s="20">
-        <f t="shared" si="5"/>
+      <c r="D13" s="16">
+        <f t="shared" si="6"/>
         <v>151.91659749147649</v>
       </c>
     </row>
@@ -922,12 +966,12 @@
       <c r="B14" s="1">
         <v>66069739.4494946</v>
       </c>
-      <c r="C14" s="20">
-        <f t="shared" si="4"/>
+      <c r="C14" s="16">
+        <f t="shared" si="5"/>
         <v>1101162.3241582434</v>
       </c>
-      <c r="D14" s="20">
-        <f t="shared" si="5"/>
+      <c r="D14" s="16">
+        <f t="shared" si="6"/>
         <v>330348.697247473</v>
       </c>
     </row>
@@ -938,12 +982,12 @@
       <c r="B15" s="1">
         <v>22303.332866771001</v>
       </c>
-      <c r="C15" s="20">
-        <f t="shared" si="4"/>
+      <c r="C15" s="16">
+        <f t="shared" si="5"/>
         <v>371.72221444618333</v>
       </c>
-      <c r="D15" s="20">
-        <f t="shared" si="5"/>
+      <c r="D15" s="16">
+        <f t="shared" si="6"/>
         <v>111.516664333855</v>
       </c>
     </row>
@@ -954,12 +998,12 @@
       <c r="B16" s="1">
         <v>62785356.084649801</v>
       </c>
-      <c r="C16" s="20">
-        <f t="shared" ref="C16" si="8">B16/$C$8</f>
+      <c r="C16" s="16">
+        <f t="shared" ref="C16" si="9">B16/$C$8</f>
         <v>1046422.60141083</v>
       </c>
-      <c r="D16" s="20">
-        <f t="shared" ref="D16" si="9">B16/$D$8</f>
+      <c r="D16" s="16">
+        <f t="shared" ref="D16" si="10">B16/$D$8</f>
         <v>313926.780423249</v>
       </c>
     </row>
@@ -997,15 +1041,15 @@
         <v>0.5</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:D24" si="10">C19/B19</f>
+        <f t="shared" ref="D19:D24" si="11">C19/B19</f>
         <v>79317.836440452549</v>
       </c>
-      <c r="E19" s="20">
-        <f t="shared" ref="E19:E24" si="11">D19/$E$18</f>
+      <c r="E19" s="16">
+        <f t="shared" ref="E19:E24" si="12">D19/$E$18</f>
         <v>1321.9639406742092</v>
       </c>
-      <c r="F19" s="20">
-        <f t="shared" ref="F19:F24" si="12">D19/$F$18</f>
+      <c r="F19" s="16">
+        <f t="shared" ref="F19:F24" si="13">D19/$F$18</f>
         <v>396.58918220226275</v>
       </c>
       <c r="G19" s="1">
@@ -1027,15 +1071,15 @@
         <v>0.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5480533.1462644683</v>
       </c>
-      <c r="E20" s="20">
-        <f t="shared" si="11"/>
+      <c r="E20" s="16">
+        <f t="shared" si="12"/>
         <v>91342.219104407806</v>
       </c>
-      <c r="F20" s="20">
-        <f t="shared" si="12"/>
+      <c r="F20" s="16">
+        <f t="shared" si="13"/>
         <v>27402.66573132234</v>
       </c>
       <c r="G20" s="1">
@@ -1054,15 +1098,15 @@
         <v>0.5</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>87690.068222873073</v>
       </c>
-      <c r="E21" s="20">
-        <f t="shared" si="11"/>
+      <c r="E21" s="16">
+        <f t="shared" si="12"/>
         <v>1461.5011370478846</v>
       </c>
-      <c r="F21" s="20">
-        <f t="shared" si="12"/>
+      <c r="F21" s="16">
+        <f t="shared" si="13"/>
         <v>438.45034111436536</v>
       </c>
       <c r="G21" s="1">
@@ -1081,15 +1125,15 @@
         <v>0.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>87963125.857640475</v>
       </c>
-      <c r="E22" s="20">
-        <f t="shared" si="11"/>
+      <c r="E22" s="16">
+        <f t="shared" si="12"/>
         <v>1466052.0976273413</v>
       </c>
-      <c r="F22" s="20">
-        <f t="shared" si="12"/>
+      <c r="F22" s="16">
+        <f t="shared" si="13"/>
         <v>439815.62928820238</v>
       </c>
       <c r="G22" s="1">
@@ -1108,15 +1152,15 @@
         <v>0.5</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>60479.969034255861</v>
       </c>
-      <c r="E23" s="20">
-        <f t="shared" si="11"/>
+      <c r="E23" s="16">
+        <f t="shared" si="12"/>
         <v>1007.9994839042644</v>
       </c>
-      <c r="F23" s="20">
-        <f t="shared" si="12"/>
+      <c r="F23" s="16">
+        <f t="shared" si="13"/>
         <v>302.39984517127931</v>
       </c>
       <c r="G23" s="1">
@@ -1135,15 +1179,15 @@
         <v>0.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>71645555.109760985</v>
       </c>
-      <c r="E24" s="20">
-        <f t="shared" si="11"/>
+      <c r="E24" s="16">
+        <f t="shared" si="12"/>
         <v>1194092.5851626832</v>
       </c>
-      <c r="F24" s="20">
-        <f t="shared" si="12"/>
+      <c r="F24" s="16">
+        <f t="shared" si="13"/>
         <v>358227.7755488049</v>
       </c>
       <c r="G24" s="1">
@@ -1162,15 +1206,15 @@
         <v>0.5</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25" si="13">C25/B25</f>
+        <f t="shared" ref="D25" si="14">C25/B25</f>
         <v>5784.3590930124938</v>
       </c>
-      <c r="E25" s="20">
-        <f t="shared" ref="E25" si="14">D25/$E$18</f>
+      <c r="E25" s="16">
+        <f t="shared" ref="E25" si="15">D25/$E$18</f>
         <v>96.405984883541564</v>
       </c>
-      <c r="F25" s="20">
-        <f t="shared" ref="F25" si="15">D25/$F$18</f>
+      <c r="F25" s="16">
+        <f t="shared" ref="F25" si="16">D25/$F$18</f>
         <v>28.92179546506247</v>
       </c>
       <c r="G25" s="1">
@@ -1189,15 +1233,15 @@
         <v>0.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26" si="16">C26/B26</f>
+        <f t="shared" ref="D26" si="17">C26/B26</f>
         <v>57843580.778723739</v>
       </c>
-      <c r="E26" s="20">
-        <f t="shared" ref="E26" si="17">D26/$E$18</f>
+      <c r="E26" s="16">
+        <f t="shared" ref="E26" si="18">D26/$E$18</f>
         <v>964059.6796453956</v>
       </c>
-      <c r="F26" s="20">
-        <f t="shared" ref="F26" si="18">D26/$F$18</f>
+      <c r="F26" s="16">
+        <f t="shared" ref="F26" si="19">D26/$F$18</f>
         <v>289217.90389361867</v>
       </c>
       <c r="G26" s="1">
@@ -1234,20 +1278,20 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -1403,20 +1447,20 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">

--- a/TFET2/Calc_Ron_EL.xlsx
+++ b/TFET2/Calc_Ron_EL.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>Capacitâncias</t>
   </si>
@@ -148,6 +148,57 @@
   </si>
   <si>
     <t>y2/x</t>
+  </si>
+  <si>
+    <t>nome:</t>
+  </si>
+  <si>
+    <t>'HP_110'</t>
+  </si>
+  <si>
+    <t>Vg:</t>
+  </si>
+  <si>
+    <t>FE:</t>
+  </si>
+  <si>
+    <t>'HP_000'</t>
+  </si>
+  <si>
+    <t>'HP_010'</t>
+  </si>
+  <si>
+    <t>'LP_010'</t>
+  </si>
+  <si>
+    <t>'LP_000'</t>
+  </si>
+  <si>
+    <t>'LP_110'</t>
+  </si>
+  <si>
+    <t>ids para vgs= 0.5 e FE correspondente</t>
+  </si>
+  <si>
+    <t>VBG = -1V</t>
+  </si>
+  <si>
+    <t>nHP</t>
+  </si>
+  <si>
+    <t>nLP</t>
+  </si>
+  <si>
+    <t>VBG = 0V</t>
+  </si>
+  <si>
+    <t>VBG = 1V</t>
+  </si>
+  <si>
+    <t>Vg_FE</t>
+  </si>
+  <si>
+    <t>VG=0.5V</t>
   </si>
 </sst>
 </file>
@@ -284,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -312,6 +363,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -594,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1256,6 +1310,244 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5.6986000000000002E-2</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8.6440000000000006E-5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="1">
+        <f>B32</f>
+        <v>5.6986000000000002E-2</v>
+      </c>
+      <c r="I32" s="1">
+        <f>B33</f>
+        <v>9.7575999999999996E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9.7575999999999996E-2</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.2493000000000001E-4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="1">
+        <f>B36</f>
+        <v>8.2671999999999995E-2</v>
+      </c>
+      <c r="I33" s="1">
+        <f>B37</f>
+        <v>0.11112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="1">
+        <f>B40</f>
+        <v>0.10246</v>
+      </c>
+      <c r="I34" s="1">
+        <f>B41</f>
+        <v>0.12316000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8.2671999999999995E-2</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6.9788000000000003E-5</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.11112</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.1657E-3</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="1">
+        <f>E40</f>
+        <v>5.6842000000000002E-5</v>
+      </c>
+      <c r="I37" s="1">
+        <f>E41</f>
+        <v>7.8951999999999999E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="1">
+        <f>E36</f>
+        <v>6.9788000000000003E-5</v>
+      </c>
+      <c r="I38" s="1">
+        <f>E37</f>
+        <v>1.1657E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="1">
+        <f>E32</f>
+        <v>8.6440000000000006E-5</v>
+      </c>
+      <c r="I39" s="1">
+        <f>E33</f>
+        <v>1.2493000000000001E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.10246</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5.6842000000000002E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.12316000000000001</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7.8951999999999999E-5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/TFET2/Calc_Ron_EL.xlsx
+++ b/TFET2/Calc_Ron_EL.xlsx
@@ -353,6 +353,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,9 +366,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:I39"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -667,11 +667,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="H1" t="s">
         <v>20</v>
       </c>
@@ -861,10 +861,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="3">
         <v>60</v>
       </c>
@@ -1330,13 +1330,13 @@
       <c r="E31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1345,25 +1345,25 @@
         <v>43</v>
       </c>
       <c r="B32" s="1">
-        <v>5.6986000000000002E-2</v>
+        <v>5.698569221E-6</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="1">
-        <v>8.6440000000000006E-5</v>
+        <v>8.644001533E-9</v>
       </c>
       <c r="G32" t="s">
         <v>51</v>
       </c>
       <c r="H32" s="1">
         <f>B32</f>
-        <v>5.6986000000000002E-2</v>
+        <v>5.698569221E-6</v>
       </c>
       <c r="I32" s="1">
         <f>B33</f>
-        <v>9.7575999999999996E-2</v>
+        <v>9.7575719359999994E-6</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1371,25 +1371,25 @@
         <v>44</v>
       </c>
       <c r="B33" s="1">
-        <v>9.7575999999999996E-2</v>
+        <v>9.7575719359999994E-6</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="1">
-        <v>1.2493000000000001E-4</v>
+        <v>1.2492864740000001E-8</v>
       </c>
       <c r="G33" t="s">
         <v>54</v>
       </c>
       <c r="H33" s="1">
         <f>B36</f>
-        <v>8.2671999999999995E-2</v>
+        <v>8.2671553319999996E-6</v>
       </c>
       <c r="I33" s="1">
         <f>B37</f>
-        <v>0.11112</v>
+        <v>1.1005614830000001E-5</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1403,11 +1403,11 @@
       </c>
       <c r="H34" s="1">
         <f>B40</f>
-        <v>0.10246</v>
+        <v>1.0246011119999999E-5</v>
       </c>
       <c r="I34" s="1">
         <f>B41</f>
-        <v>0.12316000000000001</v>
+        <v>1.2179250840000001E-5</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1430,22 +1430,22 @@
         <v>43</v>
       </c>
       <c r="B36" s="1">
-        <v>8.2671999999999995E-2</v>
+        <v>8.2671553319999996E-6</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E36" s="1">
-        <v>6.9788000000000003E-5</v>
-      </c>
-      <c r="G36" s="21" t="s">
+        <v>6.9788227810000002E-9</v>
+      </c>
+      <c r="G36" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1454,25 +1454,25 @@
         <v>44</v>
       </c>
       <c r="B37" s="1">
-        <v>0.11112</v>
+        <v>1.1005614830000001E-5</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="1">
-        <v>1.1657E-3</v>
+        <v>1.040773387E-8</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H37" s="1">
         <f>E40</f>
-        <v>5.6842000000000002E-5</v>
+        <v>5.6841996329999997E-9</v>
       </c>
       <c r="I37" s="1">
         <f>E41</f>
-        <v>7.8951999999999999E-5</v>
+        <v>8.7525354940000006E-9</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1486,11 +1486,11 @@
       </c>
       <c r="H38" s="1">
         <f>E36</f>
-        <v>6.9788000000000003E-5</v>
+        <v>6.9788227810000002E-9</v>
       </c>
       <c r="I38" s="1">
         <f>E37</f>
-        <v>1.1657E-3</v>
+        <v>1.040773387E-8</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1512,11 +1512,11 @@
       </c>
       <c r="H39" s="1">
         <f>E32</f>
-        <v>8.6440000000000006E-5</v>
+        <v>8.644001533E-9</v>
       </c>
       <c r="I39" s="1">
         <f>E33</f>
-        <v>1.2493000000000001E-4</v>
+        <v>1.2492864740000001E-8</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1524,14 +1524,14 @@
         <v>43</v>
       </c>
       <c r="B40" s="1">
-        <v>0.10246</v>
+        <v>1.0246011119999999E-5</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="1">
-        <v>5.6842000000000002E-5</v>
+        <v>5.6841996329999997E-9</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1539,14 +1539,14 @@
         <v>44</v>
       </c>
       <c r="B41" s="1">
-        <v>0.12316000000000001</v>
+        <v>1.2179250840000001E-5</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E41" s="1">
-        <v>7.8951999999999999E-5</v>
+        <v>8.7525354940000006E-9</v>
       </c>
     </row>
   </sheetData>
@@ -1570,20 +1570,20 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -1739,20 +1739,20 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">

--- a/TFET2/Calc_Ron_EL.xlsx
+++ b/TFET2/Calc_Ron_EL.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>Capacitâncias</t>
   </si>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>VG=0.5V</t>
+  </si>
+  <si>
+    <t>alpha 1</t>
+  </si>
+  <si>
+    <t>alpha 2</t>
+  </si>
+  <si>
+    <t>alpha 3</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Ion (0,5V)</t>
   </si>
 </sst>
 </file>
@@ -335,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -366,6 +381,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -648,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1547,6 +1565,47 @@
       </c>
       <c r="E41" s="1">
         <v>8.7525354940000006E-9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C45" s="22">
+        <v>1.04391307E-8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="22">
+        <v>1.2492864740000001E-8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="C47" s="22">
+        <v>1.4817796249999999E-8</v>
       </c>
     </row>
   </sheetData>

--- a/TFET2/Calc_Ron_EL.xlsx
+++ b/TFET2/Calc_Ron_EL.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ionioff" sheetId="2" r:id="rId2"/>
+    <sheet name="FOMs" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelas" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="112">
   <si>
     <t>Capacitâncias</t>
   </si>
@@ -214,17 +216,173 @@
   </si>
   <si>
     <t>Ion (0,5V)</t>
+  </si>
+  <si>
+    <t>VDD (V)</t>
+  </si>
+  <si>
+    <t>I_d</t>
+  </si>
+  <si>
+    <t>IOFF I_s</t>
+  </si>
+  <si>
+    <t>Ioff (0V)</t>
+  </si>
+  <si>
+    <t>Ioff (+1V)</t>
+  </si>
+  <si>
+    <t>Ion</t>
+  </si>
+  <si>
+    <t>VGS</t>
+  </si>
+  <si>
+    <t>0.5V</t>
+  </si>
+  <si>
+    <t>0V</t>
+  </si>
+  <si>
+    <t>1V</t>
+  </si>
+  <si>
+    <t>VPG</t>
+  </si>
+  <si>
+    <t>menos 1V</t>
+  </si>
+  <si>
+    <t>Ron (0V)</t>
+  </si>
+  <si>
+    <t>Ron (1V)</t>
+  </si>
+  <si>
+    <t>(i)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ioff=ID(VGS=0V) para </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPG=-1V, (LP), VBG=0V </t>
+  </si>
+  <si>
+    <t>e alpha=0.5 (NC)</t>
+  </si>
+  <si>
+    <t>(ii)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ion=ID(VGS=0.5V) para </t>
+  </si>
+  <si>
+    <t>(Iiii)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPG=-1V, (LP), VBG=1V (FBB) </t>
+  </si>
+  <si>
+    <t>(iv)</t>
+  </si>
+  <si>
+    <t>(v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPG=+1V, (HP), VBG=0V </t>
+  </si>
+  <si>
+    <t>(vi)</t>
+  </si>
+  <si>
+    <t>(vii)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPG=+1V, (HP), VBG=1V (FBB) </t>
+  </si>
+  <si>
+    <t>(viii)</t>
+  </si>
+  <si>
+    <t>(iii)</t>
+  </si>
+  <si>
+    <t>Ion/Ioff</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>VPG=-+1V (HP),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBG = 0V </t>
+  </si>
+  <si>
+    <t>e VGS = O valor que dar 0.5V</t>
+  </si>
+  <si>
+    <t>alpha = 0.5 (NC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBG = 1V (FBB) </t>
+  </si>
+  <si>
+    <t>VPG=--1V (LP),</t>
+  </si>
+  <si>
+    <t>Ron incluindo o efeito NC</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>ID(VGS=0.5V)</t>
+  </si>
+  <si>
+    <t>α=0.4</t>
+  </si>
+  <si>
+    <t>α=0.5</t>
+  </si>
+  <si>
+    <t>subthreshold slope</t>
+  </si>
+  <si>
+    <t>Fig 5</t>
+  </si>
+  <si>
+    <t>α=0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">α=0 </t>
+  </si>
+  <si>
+    <t>(mmFET)</t>
+  </si>
+  <si>
+    <t>---</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -350,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -371,6 +529,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,7 +546,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:C47"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -685,11 +853,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="H1" t="s">
         <v>20</v>
       </c>
@@ -879,10 +1047,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="3">
         <v>60</v>
       </c>
@@ -1224,7 +1392,7 @@
         <v>0.5</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="11"/>
+        <f>C23/B23</f>
         <v>60479.969034255861</v>
       </c>
       <c r="E23" s="16">
@@ -1582,7 +1750,7 @@
       <c r="B45" s="17">
         <v>0.4</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="18">
         <v>1.04391307E-8</v>
       </c>
     </row>
@@ -1593,7 +1761,7 @@
       <c r="B46" s="17">
         <v>0.5</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="18">
         <v>1.2492864740000001E-8</v>
       </c>
     </row>
@@ -1604,7 +1772,7 @@
       <c r="B47" s="17">
         <v>0.6</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="18">
         <v>1.4817796249999999E-8</v>
       </c>
     </row>
@@ -1620,31 +1788,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -1682,7 +1850,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -1720,7 +1888,7 @@
         <v>9.532803508E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -1758,7 +1926,7 @@
         <v>2.840828682E-8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
@@ -1796,24 +1964,24 @@
         <v>335.56418126871102</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -1851,7 +2019,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -1889,7 +2057,7 @@
         <v>1.190099874E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1926,8 +2094,11 @@
       <c r="L10" s="9">
         <v>5.3410755290000004E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
@@ -1965,7 +2136,12 @@
         <v>222820.26673058901</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1976,7 +2152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1987,7 +2163,7 @@
         <v>1.165620482E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -2005,4 +2181,795 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0500000000000001E-16</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.7099999999999997E-17</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>4.7549926480000001E-8</v>
+      </c>
+      <c r="F2">
+        <v>2.164582017E-7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>30383.319498295299</v>
+      </c>
+      <c r="I2" s="1">
+        <v>22303.332866771001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.0500000000000001E-16</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.7099999999999997E-17</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>2.1012408190000001E-14</v>
+      </c>
+      <c r="F3">
+        <v>3.0268314979999998E-15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>66069739.4494946</v>
+      </c>
+      <c r="I3" s="1">
+        <v>62785356.084649801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="14">
+        <v>8.2671553319999996E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1.0246011119999999E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1.11120186E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1.231559485E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="14">
+        <v>6.9788227810000002E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="14">
+        <v>8.644001533E-9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1.165678882E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="14">
+        <v>2.6937595640000002E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="7.54296875" customWidth="1"/>
+    <col min="10" max="10" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="25">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="25">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="25">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <v>1</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" t="s">
+        <v>90</v>
+      </c>
+      <c r="T10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Q11" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="25">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="J15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="17">
+        <v>95</v>
+      </c>
+      <c r="M15" s="17">
+        <v>77</v>
+      </c>
+      <c r="N15" s="17">
+        <v>67</v>
+      </c>
+      <c r="O15" s="17">
+        <v>54</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15" t="s">
+        <v>96</v>
+      </c>
+      <c r="T15" t="s">
+        <v>97</v>
+      </c>
+      <c r="V15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="25">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="27">
+        <v>8.2671553319999996E-6</v>
+      </c>
+      <c r="M16" s="27">
+        <v>1.0154307589999999E-5</v>
+      </c>
+      <c r="N16" s="27">
+        <v>1.1033270979999999E-5</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>81</v>
+      </c>
+      <c r="R16" t="s">
+        <v>95</v>
+      </c>
+      <c r="S16" t="s">
+        <v>99</v>
+      </c>
+      <c r="T16" t="s">
+        <v>97</v>
+      </c>
+      <c r="U16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="25">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="25">
+        <v>-1</v>
+      </c>
+      <c r="C18" s="25">
+        <v>1</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="Q18" t="s">
+        <v>92</v>
+      </c>
+      <c r="R18" t="s">
+        <v>100</v>
+      </c>
+      <c r="S18" t="s">
+        <v>96</v>
+      </c>
+      <c r="T18" t="s">
+        <v>97</v>
+      </c>
+      <c r="V18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Q19" t="s">
+        <v>85</v>
+      </c>
+      <c r="R19" t="s">
+        <v>100</v>
+      </c>
+      <c r="S19" t="s">
+        <v>99</v>
+      </c>
+      <c r="T19" t="s">
+        <v>97</v>
+      </c>
+      <c r="U19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/TFET2/Calc_Ron_EL.xlsx
+++ b/TFET2/Calc_Ron_EL.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="122">
   <si>
     <t>Capacitâncias</t>
   </si>
@@ -363,6 +363,36 @@
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>Aux</t>
+  </si>
+  <si>
+    <t>C:\Users\becahp\UnB\Artigo\Simulacoes\TFET2\03_backgate\HP\nHP_BG_010</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>C:\Users\becahp\UnB\Artigo\Simulacoes\TFET2\02_otimizacao\04_tbox\nHP_tbox_25</t>
+  </si>
+  <si>
+    <t>C:\Users\becahp\UnB\Artigo\Simulacoes\TFET2\00_ideal\nHP_vds05</t>
+  </si>
+  <si>
+    <t>C:\Users\becahp\UnB\Artigo\Simulacoes\TFET2\00_ideal\nLP_vds05</t>
+  </si>
+  <si>
+    <t>C:\Users\becahp\UnB\Artigo\Simulacoes\TFET2\02_otimizacao\04_tbox\nLP_tbox_25</t>
+  </si>
+  <si>
+    <t>C:\Users\becahp\UnB\Artigo\Simulacoes\TFET2\03_backgate\re\nLP_BG_110</t>
+  </si>
+  <si>
+    <t>Ioff (I_s)</t>
+  </si>
+  <si>
+    <t>Ion (I_s)</t>
   </si>
 </sst>
 </file>
@@ -371,7 +401,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -508,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -534,6 +564,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,14 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,11 +884,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="H1" t="s">
         <v>20</v>
       </c>
@@ -1047,10 +1078,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="3">
         <v>60</v>
       </c>
@@ -1797,20 +1828,20 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -1966,20 +1997,20 @@
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -2187,7 +2218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2272,35 +2303,35 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="22" t="s">
         <v>72</v>
       </c>
       <c r="G8" s="14">
@@ -2308,22 +2339,22 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="22" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="14">
@@ -2331,22 +2362,22 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="22" t="s">
         <v>72</v>
       </c>
       <c r="G10" s="14">
@@ -2354,22 +2385,22 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="22" t="s">
         <v>72</v>
       </c>
       <c r="G11" s="14">
@@ -2377,42 +2408,42 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="22" t="s">
         <v>74</v>
       </c>
       <c r="G14" s="14">
@@ -2420,22 +2451,22 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="22" t="s">
         <v>74</v>
       </c>
       <c r="G15" s="14">
@@ -2443,22 +2474,22 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="22" t="s">
         <v>74</v>
       </c>
       <c r="G16" s="14">
@@ -2466,22 +2497,22 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="22" t="s">
         <v>74</v>
       </c>
       <c r="G17" s="14">
@@ -2496,10 +2527,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2527,22 +2558,34 @@
       <c r="F1" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="21">
         <v>-1</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="21">
         <v>0</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="21">
         <v>0.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.1104272010000001E-16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="29">
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
         <v>77</v>
@@ -2561,17 +2604,26 @@
       <c r="A3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="21">
         <v>0.5</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="21">
         <v>-1</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="21">
         <v>0</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>0.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.0407732580000001E-8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="29">
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
         <v>81</v>
@@ -2590,17 +2642,26 @@
       <c r="A4" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="21">
         <v>0</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="21">
         <v>-1</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="21">
         <v>1</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="21">
         <v>0.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.8562560970000001E-15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="29">
+        <v>11</v>
       </c>
       <c r="Q4" t="s">
         <v>83</v>
@@ -2619,17 +2680,26 @@
       <c r="A5" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="21">
         <v>0.5</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="21">
         <v>-1</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="21">
         <v>1</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="21">
         <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.24928645E-8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="29">
+        <v>11</v>
       </c>
       <c r="Q5" t="s">
         <v>85</v>
@@ -2645,41 +2715,60 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="21">
         <v>0</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="21">
         <v>1</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="21">
         <v>0</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="21">
         <v>0.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.7549926480000001E-8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="29">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="21">
         <v>0.5</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="21">
         <v>1</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="21">
         <v>0</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <v>0.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.1033270979999999E-5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="29">
+        <v>2</v>
       </c>
       <c r="Q8" t="s">
         <v>86</v>
@@ -2698,17 +2787,26 @@
       <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="21">
         <v>0</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="21">
         <v>1</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="21">
         <v>0.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.164582017E-7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="29">
+        <v>3</v>
       </c>
       <c r="Q9" t="s">
         <v>88</v>
@@ -2727,17 +2825,26 @@
       <c r="A10" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="21">
         <v>0.5</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="21">
         <v>1</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="21">
         <v>1</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="21">
         <v>0.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.219815992E-5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="29">
+        <v>3</v>
       </c>
       <c r="Q10" t="s">
         <v>89</v>
@@ -2811,14 +2918,14 @@
       <c r="A15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="21">
         <v>-1</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="21">
         <v>0</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21">
         <v>0.5</v>
       </c>
       <c r="F15" s="20"/>
@@ -2860,14 +2967,14 @@
       <c r="A16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="21">
         <v>-1</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="21">
         <v>0</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21">
         <v>0.5</v>
       </c>
       <c r="F16" s="4"/>
@@ -2877,16 +2984,16 @@
       <c r="K16" t="s">
         <v>103</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="23">
         <v>8.2671553319999996E-6</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="23">
         <v>1.0154307589999999E-5</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="23">
         <v>1.1033270979999999E-5</v>
       </c>
-      <c r="O16" s="28" t="s">
+      <c r="O16" s="24" t="s">
         <v>111</v>
       </c>
       <c r="Q16" t="s">
@@ -2909,14 +3016,14 @@
       <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="21">
         <v>-1</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="21">
         <v>1</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21">
         <v>0.5</v>
       </c>
       <c r="F17" s="4"/>
@@ -2925,14 +3032,14 @@
       <c r="A18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="21">
         <v>-1</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="21">
         <v>1</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21">
         <v>0.5</v>
       </c>
       <c r="F18" s="4"/>
@@ -2969,7 +3076,154 @@
         <v>98</v>
       </c>
     </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="I22" s="22"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>-1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>22</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="4"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="4"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TFET2/Calc_Ron_EL.xlsx
+++ b/TFET2/Calc_Ron_EL.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ionioff" sheetId="2" r:id="rId2"/>
     <sheet name="FOMs" sheetId="3" r:id="rId3"/>
     <sheet name="Tabelas" sheetId="4" r:id="rId4"/>
+    <sheet name="Extras" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="125">
   <si>
     <t>Capacitâncias</t>
   </si>
@@ -308,9 +309,6 @@
     <t>(iii)</t>
   </si>
   <si>
-    <t>Ion/Ioff</t>
-  </si>
-  <si>
     <t>alpha</t>
   </si>
   <si>
@@ -393,6 +391,18 @@
   </si>
   <si>
     <t>Ion (I_s)</t>
+  </si>
+  <si>
+    <t>I_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBG </t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -538,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -572,6 +582,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,7 +596,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,16 +878,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1796875"/>
-    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.81640625"/>
     <col min="9" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
@@ -884,11 +895,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="H1" t="s">
         <v>20</v>
       </c>
@@ -1037,7 +1048,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="14">
-        <f t="shared" si="2"/>
+        <f>3*$D$5*B12</f>
         <v>7.3825456275628532E-8</v>
       </c>
       <c r="I6" s="1">
@@ -1078,10 +1089,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="3">
         <v>60</v>
       </c>
@@ -1828,20 +1839,20 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -1997,20 +2008,20 @@
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -2219,7 +2230,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2529,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2553,13 +2564,16 @@
         <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>112</v>
+        <v>64</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
@@ -2579,12 +2593,15 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
+        <v>2.1012408190000001E-14</v>
+      </c>
+      <c r="G2" s="1">
         <v>1.1104272010000001E-16</v>
       </c>
-      <c r="G2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="29">
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="25">
         <v>22</v>
       </c>
       <c r="Q2" t="s">
@@ -2617,12 +2634,15 @@
         <v>0.5</v>
       </c>
       <c r="F3" s="1">
+        <v>1.040773387E-8</v>
+      </c>
+      <c r="G3" s="1">
         <v>1.0407732580000001E-8</v>
       </c>
-      <c r="G3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="29">
+      <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="25">
         <v>22</v>
       </c>
       <c r="Q3" t="s">
@@ -2655,12 +2675,15 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="1">
+        <v>2.865708979E-15</v>
+      </c>
+      <c r="G4" s="1">
         <v>2.8562560970000001E-15</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="29">
+      <c r="H4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="25">
         <v>11</v>
       </c>
       <c r="Q4" t="s">
@@ -2693,12 +2716,15 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
+        <v>1.2492864740000001E-8</v>
+      </c>
+      <c r="G5" s="1">
         <v>1.24928645E-8</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="29">
+      <c r="H5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="25">
         <v>11</v>
       </c>
       <c r="Q5" t="s">
@@ -2717,7 +2743,7 @@
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="H6" s="29"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -2738,10 +2764,10 @@
       <c r="F7" s="1">
         <v>4.7549926480000001E-8</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="29">
+      <c r="I7" s="25">
         <v>2</v>
       </c>
     </row>
@@ -2764,10 +2790,10 @@
       <c r="F8" s="1">
         <v>1.1033270979999999E-5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="29">
+      <c r="I8" s="25">
         <v>2</v>
       </c>
       <c r="Q8" t="s">
@@ -2802,10 +2828,10 @@
       <c r="F9" s="1">
         <v>2.164582017E-7</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="29">
+      <c r="I9" s="25">
         <v>3</v>
       </c>
       <c r="Q9" t="s">
@@ -2840,10 +2866,10 @@
       <c r="F10" s="1">
         <v>1.219815992E-5</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="29">
+      <c r="I10" s="25">
         <v>3</v>
       </c>
       <c r="Q10" t="s">
@@ -2875,13 +2901,13 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
@@ -2896,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M14" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="N14" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="O14" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
@@ -2933,7 +2959,7 @@
         <v>77</v>
       </c>
       <c r="K15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L15" s="17">
         <v>95</v>
@@ -2951,16 +2977,16 @@
         <v>77</v>
       </c>
       <c r="R15" t="s">
+        <v>94</v>
+      </c>
+      <c r="S15" t="s">
         <v>95</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>96</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" t="s">
         <v>97</v>
-      </c>
-      <c r="V15" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
@@ -2982,7 +3008,7 @@
         <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L16" s="23">
         <v>8.2671553319999996E-6</v>
@@ -2994,22 +3020,22 @@
         <v>1.1033270979999999E-5</v>
       </c>
       <c r="O16" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q16" t="s">
         <v>81</v>
       </c>
       <c r="R16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T16" t="s">
+        <v>96</v>
+      </c>
+      <c r="U16" t="s">
         <v>97</v>
-      </c>
-      <c r="U16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
@@ -3047,16 +3073,16 @@
         <v>92</v>
       </c>
       <c r="R18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S18" t="s">
+        <v>95</v>
+      </c>
+      <c r="T18" t="s">
         <v>96</v>
       </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
         <v>97</v>
-      </c>
-      <c r="V18" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
@@ -3064,16 +3090,16 @@
         <v>85</v>
       </c>
       <c r="R19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T19" t="s">
+        <v>96</v>
+      </c>
+      <c r="U19" t="s">
         <v>97</v>
-      </c>
-      <c r="U19" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
@@ -3081,7 +3107,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -3090,7 +3116,7 @@
         <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
@@ -3104,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
@@ -3118,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
@@ -3132,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
@@ -3146,7 +3172,7 @@
         <v>-1</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
@@ -3160,7 +3186,7 @@
         <v>-1</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -3174,7 +3200,7 @@
         <v>-1</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -3183,29 +3209,47 @@
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="22">
+        <v>-1</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="14">
+        <v>1</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
@@ -3226,4 +3270,1021 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0.1</v>
+      </c>
+      <c r="D1">
+        <v>0.2</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-0.6</v>
+      </c>
+      <c r="D2">
+        <v>-0.2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0.06</v>
+      </c>
+      <c r="I4" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J4" s="26">
+        <v>0.08</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0.09</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="N4" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0.13</v>
+      </c>
+      <c r="P4" s="26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="R4" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="S4" s="26">
+        <v>0.17</v>
+      </c>
+      <c r="T4" s="26">
+        <v>0.18</v>
+      </c>
+      <c r="U4" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="V4" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="W4" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="X4" s="26">
+        <v>0.22</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>0.23</v>
+      </c>
+      <c r="Z4" s="26">
+        <v>0.24</v>
+      </c>
+      <c r="AA4" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="AB4" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="AC4" s="26">
+        <v>0.27</v>
+      </c>
+      <c r="AD4" s="26">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AE4" s="26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AF4" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="AG4" s="26">
+        <v>0.31</v>
+      </c>
+      <c r="AH4" s="26">
+        <v>0.32</v>
+      </c>
+      <c r="AI4" s="26">
+        <v>0.33</v>
+      </c>
+      <c r="AJ4" s="26">
+        <v>0.34</v>
+      </c>
+      <c r="AK4" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="AL4" s="26">
+        <v>0.36</v>
+      </c>
+      <c r="AM4" s="26">
+        <v>0.37</v>
+      </c>
+      <c r="AN4" s="26">
+        <v>0.38</v>
+      </c>
+      <c r="AO4" s="26">
+        <v>0.39</v>
+      </c>
+      <c r="AP4" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AQ4" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AR4" s="26">
+        <v>0.42</v>
+      </c>
+      <c r="AS4" s="26">
+        <v>0.43</v>
+      </c>
+      <c r="AT4" s="26">
+        <v>0.44</v>
+      </c>
+      <c r="AU4" s="26">
+        <v>0.45</v>
+      </c>
+      <c r="AV4" s="26">
+        <v>0.46</v>
+      </c>
+      <c r="AW4" s="26">
+        <v>0.47</v>
+      </c>
+      <c r="AX4" s="26">
+        <v>0.48</v>
+      </c>
+      <c r="AY4" s="26">
+        <v>0.49</v>
+      </c>
+      <c r="AZ4" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="26">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="26">
+        <v>-0.96</v>
+      </c>
+      <c r="D5" s="26">
+        <v>-0.92</v>
+      </c>
+      <c r="E5" s="26">
+        <v>-0.88</v>
+      </c>
+      <c r="F5" s="26">
+        <v>-0.84</v>
+      </c>
+      <c r="G5" s="26">
+        <v>-0.8</v>
+      </c>
+      <c r="H5" s="26">
+        <v>-0.76</v>
+      </c>
+      <c r="I5" s="26">
+        <v>-0.72</v>
+      </c>
+      <c r="J5" s="26">
+        <v>-0.68</v>
+      </c>
+      <c r="K5" s="26">
+        <v>-0.64</v>
+      </c>
+      <c r="L5" s="26">
+        <v>-0.6</v>
+      </c>
+      <c r="M5" s="26">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="N5" s="26">
+        <v>-0.52</v>
+      </c>
+      <c r="O5" s="26">
+        <v>-0.48</v>
+      </c>
+      <c r="P5" s="26">
+        <v>-0.44</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>-0.39999999999999902</v>
+      </c>
+      <c r="R5" s="26">
+        <v>-0.35999999999999899</v>
+      </c>
+      <c r="S5" s="26">
+        <v>-0.31999999999999901</v>
+      </c>
+      <c r="T5" s="26">
+        <v>-0.27999999999999903</v>
+      </c>
+      <c r="U5" s="26">
+        <v>-0.23999999999999899</v>
+      </c>
+      <c r="V5" s="26">
+        <v>-0.19999999999999901</v>
+      </c>
+      <c r="W5" s="26">
+        <v>-0.159999999999999</v>
+      </c>
+      <c r="X5" s="26">
+        <v>-0.119999999999999</v>
+      </c>
+      <c r="Y5" s="26">
+        <v>-7.9999999999999002E-2</v>
+      </c>
+      <c r="Z5" s="26">
+        <v>-3.9999999999999002E-2</v>
+      </c>
+      <c r="AA5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AC5" s="26">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="AD5" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AE5" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="AF5" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AG5" s="26">
+        <v>0.24</v>
+      </c>
+      <c r="AH5" s="26">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AI5" s="26">
+        <v>0.32</v>
+      </c>
+      <c r="AJ5" s="26">
+        <v>0.36</v>
+      </c>
+      <c r="AK5" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AL5" s="26">
+        <v>0.44</v>
+      </c>
+      <c r="AM5" s="26">
+        <v>0.48</v>
+      </c>
+      <c r="AN5" s="26">
+        <v>0.52</v>
+      </c>
+      <c r="AO5" s="26">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AP5" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="AQ5" s="26">
+        <v>0.64</v>
+      </c>
+      <c r="AR5" s="26">
+        <v>0.68</v>
+      </c>
+      <c r="AS5" s="26">
+        <v>0.72</v>
+      </c>
+      <c r="AT5" s="26">
+        <v>0.76</v>
+      </c>
+      <c r="AU5" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="AV5" s="26">
+        <v>0.84</v>
+      </c>
+      <c r="AW5" s="26">
+        <v>0.88</v>
+      </c>
+      <c r="AX5" s="26">
+        <v>0.92</v>
+      </c>
+      <c r="AY5" s="26">
+        <v>0.96</v>
+      </c>
+      <c r="AZ5" s="26">
+        <v>1</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="26">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0</v>
+      </c>
+      <c r="P7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>0</v>
+      </c>
+      <c r="R7" s="26">
+        <v>0</v>
+      </c>
+      <c r="S7" s="26">
+        <v>0</v>
+      </c>
+      <c r="T7" s="26">
+        <v>0</v>
+      </c>
+      <c r="U7" s="26">
+        <v>0</v>
+      </c>
+      <c r="V7" s="26">
+        <v>0</v>
+      </c>
+      <c r="W7" s="26">
+        <v>0</v>
+      </c>
+      <c r="X7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="26">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26">
+        <v>1</v>
+      </c>
+      <c r="F8" s="26">
+        <v>1</v>
+      </c>
+      <c r="G8" s="26">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1</v>
+      </c>
+      <c r="I8" s="26">
+        <v>1</v>
+      </c>
+      <c r="J8" s="26">
+        <v>1</v>
+      </c>
+      <c r="K8" s="26">
+        <v>1</v>
+      </c>
+      <c r="L8" s="26">
+        <v>1</v>
+      </c>
+      <c r="M8" s="26">
+        <v>1</v>
+      </c>
+      <c r="N8" s="26">
+        <v>1</v>
+      </c>
+      <c r="O8" s="26">
+        <v>1</v>
+      </c>
+      <c r="P8" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>1</v>
+      </c>
+      <c r="R8" s="26">
+        <v>1</v>
+      </c>
+      <c r="S8" s="26">
+        <v>1</v>
+      </c>
+      <c r="T8" s="26">
+        <v>1</v>
+      </c>
+      <c r="U8" s="26">
+        <v>1</v>
+      </c>
+      <c r="V8" s="26">
+        <v>1</v>
+      </c>
+      <c r="W8" s="26">
+        <v>1</v>
+      </c>
+      <c r="X8" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="26">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="26">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26">
+        <v>0</v>
+      </c>
+      <c r="O10" s="26">
+        <v>0</v>
+      </c>
+      <c r="P10" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>0</v>
+      </c>
+      <c r="R10" s="26">
+        <v>0</v>
+      </c>
+      <c r="S10" s="26">
+        <v>0</v>
+      </c>
+      <c r="T10" s="26">
+        <v>0</v>
+      </c>
+      <c r="U10" s="26">
+        <v>0</v>
+      </c>
+      <c r="V10" s="26">
+        <v>0</v>
+      </c>
+      <c r="W10" s="26">
+        <v>0</v>
+      </c>
+      <c r="X10" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="R11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="S11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="U11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="V11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="W11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="X11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="Y11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="Z11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AB11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AC11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AD11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AE11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AF11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AG11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AH11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AI11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AJ11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AK11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AL11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AM11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AN11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AO11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AP11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AQ11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AR11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AS11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AT11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AU11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AV11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AW11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AX11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AY11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AZ11" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/TFET2/Calc_Ron_EL.xlsx
+++ b/TFET2/Calc_Ron_EL.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="127">
   <si>
     <t>Capacitâncias</t>
   </si>
@@ -403,15 +403,22 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Resistencia NC</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -548,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -596,6 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1784,6 +1792,15 @@
       <c r="C44" s="17" t="s">
         <v>62</v>
       </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -1795,6 +1812,18 @@
       <c r="C45" s="18">
         <v>1.04391307E-8</v>
       </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>22155.249137165501</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
@@ -1806,6 +1835,18 @@
       <c r="C46" s="18">
         <v>1.2492864740000001E-8</v>
       </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>20031.4030738197</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -1816,6 +1857,32 @@
       </c>
       <c r="C47" s="18">
         <v>1.4817796249999999E-8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>52003161.103083797</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="31">
+        <v>50534656.500271797</v>
       </c>
     </row>
   </sheetData>
@@ -3277,7 +3344,7 @@
   <dimension ref="A1:BA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3652,6 +3719,215 @@
         <v>73</v>
       </c>
     </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6">
+        <f>4*B4-1</f>
+        <v>-1</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:AZ6" si="0">4*C4-1</f>
+        <v>-0.96</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.92</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.88</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.84</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.76</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.72</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.67999999999999994</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.64</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.52</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.48</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.43999999999999995</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.36</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.31999999999999995</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.24</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.16000000000000003</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.12</v>
+      </c>
+      <c r="Y6" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="Z6" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="AF6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AG6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="AH6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AI6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="AK6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AL6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="AM6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="AN6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="AO6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AP6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AQ6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="AR6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="AS6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="AT6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="AU6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="AV6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="AW6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="AX6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="AY6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="AZ6" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>122</v>
